--- a/BankAccount/Transactions generator.xlsx
+++ b/BankAccount/Transactions generator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://waketechedu-my.sharepoint.com/personal/rtillies_waketech_edu/Documents/Documents/GitHub/java_waketech/BankAccount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A121CF3-ED98-4D3A-956C-36546A1EFE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{7A121CF3-ED98-4D3A-956C-36546A1EFE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD9F0A36-E24C-9E4A-B407-5F1236458D1D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{B760BC5A-1603-4A86-AD8C-EC41AB0F6575}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="23240" windowHeight="11500" activeTab="3" xr2:uid="{B760BC5A-1603-4A86-AD8C-EC41AB0F6575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="trans_type">Sheet1!$K$2:$L$5</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -161,13 +162,44 @@
   </si>
   <si>
     <t>odd</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,19 +231,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -219,6 +275,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -558,9 +654,9 @@
       <selection activeCell="F1" sqref="F1:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,11 +692,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">ROUND(RAND()*1000,2)</f>
-        <v>855.73</v>
+        <v>755.61</v>
       </c>
       <c r="F2" t="str">
         <f>"7/"&amp;A2&amp;"/2024"</f>
@@ -611,12 +707,12 @@
         <v>3</v>
       </c>
       <c r="H2" t="str">
-        <f ca="1">VLOOKUP(C2,trans_type,2)</f>
-        <v>deposit</v>
+        <f t="shared" ref="H2:H32" ca="1" si="0">VLOOKUP(C2,trans_type,2)</f>
+        <v>check</v>
       </c>
       <c r="I2" s="1">
         <f ca="1">D2</f>
-        <v>855.73</v>
+        <v>755.61</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -625,37 +721,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:C32" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <f t="shared" ref="B3:C32" ca="1" si="1">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="C3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D32" ca="1" si="2">ROUND(RAND()*1000,2)</f>
+        <v>27.12</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F32" si="3">"7/"&amp;A3&amp;"/2024"</f>
+        <v>7/2/2024</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G32" ca="1" si="4">B3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D32" ca="1" si="1">ROUND(RAND()*1000,2)</f>
-        <v>514.33000000000004</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F32" si="2">"7/"&amp;A3&amp;"/2024"</f>
-        <v>7/2/2024</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G32" ca="1" si="3">B3</f>
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <f ca="1">VLOOKUP(C3,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I32" ca="1" si="4">D3</f>
-        <v>514.33000000000004</v>
+        <f t="shared" ref="I3:I32" ca="1" si="5">D3</f>
+        <v>27.12</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -664,37 +760,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>768.1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>7/3/2024</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>703.34</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>7/3/2024</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H4" t="str">
-        <f ca="1">VLOOKUP(C4,trans_type,2)</f>
-        <v>deposit</v>
+        <v>withdraw</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>703.34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>768.1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -703,37 +799,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>257.73</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/4/2024</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>620.41</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/4/2024</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f ca="1">VLOOKUP(C5,trans_type,2)</f>
-        <v>check</v>
+        <v>deposit</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>620.41</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>257.73</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -742,895 +838,895 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>679.16</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>7/5/2024</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>831.77</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="2"/>
-        <v>7/5/2024</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H6" t="str">
-        <f ca="1">VLOOKUP(C6,trans_type,2)</f>
         <v>deposit</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>831.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>679.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>576.45000000000005</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/6/2024</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>710.83</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/6/2024</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f ca="1">VLOOKUP(C7,trans_type,2)</f>
         <v>check</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>710.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>576.45000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>348.71</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/7/2024</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>725.09</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/7/2024</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f ca="1">VLOOKUP(C8,trans_type,2)</f>
-        <v>deposit</v>
+        <v>withdraw</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>725.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>348.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>772.23</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>7/8/2024</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>601.26</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="2"/>
-        <v>7/8/2024</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H9" t="str">
-        <f ca="1">VLOOKUP(C9,trans_type,2)</f>
-        <v>check</v>
+        <v>deposit</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>601.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>772.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>938.5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>7/9/2024</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>389.29</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="2"/>
-        <v>7/9/2024</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H10" t="str">
-        <f ca="1">VLOOKUP(C10,trans_type,2)</f>
-        <v>withdraw</v>
+        <v>deposit</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>389.29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>938.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>506.79</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>7/10/2024</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>291.89999999999998</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
-        <v>7/10/2024</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H11" t="str">
-        <f ca="1">VLOOKUP(C11,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>291.89999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>506.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>266.45</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>7/11/2024</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>210.12</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>7/11/2024</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H12" t="str">
-        <f ca="1">VLOOKUP(C12,trans_type,2)</f>
-        <v>withdraw</v>
+        <v>deposit</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>210.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>266.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>191.24</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>7/12/2024</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>772.4</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="2"/>
-        <v>7/12/2024</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H13" t="str">
-        <f ca="1">VLOOKUP(C13,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>772.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>191.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>425.21</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/13/2024</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>153.63999999999999</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/13/2024</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f ca="1">VLOOKUP(C14,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>153.63999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>425.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>980.48</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/14/2024</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>730.94</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/14/2024</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f ca="1">VLOOKUP(C15,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>730.94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>980.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>344.86</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>7/15/2024</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>595.27</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>7/15/2024</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H16" t="str">
-        <f ca="1">VLOOKUP(C16,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>595.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>344.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>533.52</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>7/16/2024</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>880.69</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="2"/>
-        <v>7/16/2024</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H17" t="str">
-        <f ca="1">VLOOKUP(C17,trans_type,2)</f>
-        <v>withdraw</v>
+        <v>check</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>880.69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>533.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>119.83</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>7/17/2024</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>380.81</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
-        <v>7/17/2024</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H18" t="str">
-        <f ca="1">VLOOKUP(C18,trans_type,2)</f>
-        <v>check</v>
+        <v>deposit</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>380.81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>119.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>704.22</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>7/18/2024</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>652.84</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="2"/>
-        <v>7/18/2024</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H19" t="str">
-        <f ca="1">VLOOKUP(C19,trans_type,2)</f>
-        <v>deposit</v>
+        <v>withdraw</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>652.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>704.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>279.45999999999998</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>7/19/2024</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.11</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="2"/>
-        <v>7/19/2024</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H20" t="str">
-        <f ca="1">VLOOKUP(C20,trans_type,2)</f>
-        <v>check</v>
+        <v>deposit</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>21.11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>279.45999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>624.07000000000005</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/20/2024</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>553.48</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/20/2024</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="str">
-        <f ca="1">VLOOKUP(C21,trans_type,2)</f>
         <v>check</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>553.48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>624.07000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>883</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/21/2024</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>548.27</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/21/2024</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H22" s="2" t="str">
-        <f ca="1">VLOOKUP(C22,trans_type,2)</f>
         <v>withdraw</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>548.27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>870.71</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>7/22/2024</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>611.12</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="2"/>
-        <v>7/22/2024</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H23" t="str">
-        <f ca="1">VLOOKUP(C23,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>611.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>870.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>681.67</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>7/23/2024</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>957.37</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="2"/>
-        <v>7/23/2024</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H24" t="str">
-        <f ca="1">VLOOKUP(C24,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>957.37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>681.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>215.5</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>7/24/2024</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>883.7</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="2"/>
-        <v>7/24/2024</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H25" t="str">
-        <f ca="1">VLOOKUP(C25,trans_type,2)</f>
-        <v>withdraw</v>
+        <v>deposit</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>883.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>215.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>834.99</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>7/25/2024</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>149.63</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="2"/>
-        <v>7/25/2024</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H26" t="str">
-        <f ca="1">VLOOKUP(C26,trans_type,2)</f>
-        <v>withdraw</v>
+        <v>check</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>149.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>834.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>884.56</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v>7/26/2024</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>572.13</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="2"/>
-        <v>7/26/2024</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H27" t="str">
-        <f ca="1">VLOOKUP(C27,trans_type,2)</f>
         <v>withdraw</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>572.13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>884.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>588.79999999999995</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/27/2024</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>970.45</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/27/2024</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f ca="1">VLOOKUP(C28,trans_type,2)</f>
-        <v>check</v>
+        <v>deposit</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>970.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>588.79999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>484.05</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7/28/2024</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>621.29999999999995</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>7/28/2024</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H29" s="2" t="str">
-        <f ca="1">VLOOKUP(C29,trans_type,2)</f>
-        <v>deposit</v>
+        <v>check</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>621.29999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>484.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>602.23</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>7/29/2024</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>660.93</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="2"/>
-        <v>7/29/2024</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H30" t="str">
-        <f ca="1">VLOOKUP(C30,trans_type,2)</f>
-        <v>withdraw</v>
+        <v>deposit</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>660.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>602.23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>165.45</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>7/30/2024</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>868.42</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="2"/>
-        <v>7/30/2024</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H31" t="str">
-        <f ca="1">VLOOKUP(C31,trans_type,2)</f>
         <v>check</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>868.42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>165.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>940.68</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>7/31/2024</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>159.25</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="2"/>
-        <v>7/31/2024</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H32" t="str">
-        <f ca="1">VLOOKUP(C32,trans_type,2)</f>
-        <v>check</v>
+        <v>withdraw</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>159.25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>940.68</v>
       </c>
     </row>
   </sheetData>
@@ -1646,9 +1742,9 @@
       <selection sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1775,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1879,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1957,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1983,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2009,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2035,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2087,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2113,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2139,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2165,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2191,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2217,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2243,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2269,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2295,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2321,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2373,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2399,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2425,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2451,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +2575,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,13 +2587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A69A3A-916B-457E-B283-D34C6F65F1A5}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2525,7 +2621,7 @@
         <v>576.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2635,7 @@
         <v>101.58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2649,7 @@
         <v>848.12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2567,7 +2663,7 @@
         <v>276.37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2581,7 +2677,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2595,7 +2691,7 @@
         <v>795.74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2609,7 +2705,7 @@
         <v>59.73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2623,7 +2719,7 @@
         <v>41.89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2637,7 +2733,7 @@
         <v>74.48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2651,7 +2747,7 @@
         <v>978.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2665,7 +2761,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2679,7 +2775,7 @@
         <v>539.98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +2789,7 @@
         <v>903.29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2707,7 +2803,7 @@
         <v>293.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2721,7 +2817,7 @@
         <v>62.28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2735,7 +2831,7 @@
         <v>314.97000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2749,7 +2845,7 @@
         <v>893.78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2763,7 +2859,7 @@
         <v>153.29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2777,7 +2873,7 @@
         <v>797.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2791,7 +2887,7 @@
         <v>342.99</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2805,7 +2901,7 @@
         <v>488.49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2822,4 +2918,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F8107F-E4F5-E841-9AE7-AB95330CDE0B}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1">
+        <f>SUM(H2:H21)</f>
+        <v>-100</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ref="I1:K1" si="0">SUM(I2:I21)</f>
+        <v>1000</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5">
+        <v>500</v>
+      </c>
+      <c r="H2" s="5">
+        <v>500</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="5">
+        <v>250</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>-550</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:K1">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>